--- a/Sprint2/Code_Metrics.xlsx
+++ b/Sprint2/Code_Metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kdbro\OneDrive\Desktop\OSU\Spring 2025\3902- Proj. Interactive Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kdbro\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CCDA828-DB7A-4793-9A2D-0B09307667F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE64B7A-56C2-4165-A1F6-AD499FA76944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20535" yWindow="1635" windowWidth="19785" windowHeight="18210" xr2:uid="{4AA74016-5F1D-4EC9-B5F7-5BB9F8803B5C}"/>
+    <workbookView xWindow="21840" yWindow="0" windowWidth="29760" windowHeight="21000" xr2:uid="{4AA74016-5F1D-4EC9-B5F7-5BB9F8803B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Week </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Maintainability Index</t>
   </si>
@@ -69,6 +66,27 @@
   </si>
   <si>
     <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>2/28 Fri</t>
+  </si>
+  <si>
+    <t>3/7 Fri</t>
+  </si>
+  <si>
+    <t>2/24 Mon</t>
   </si>
 </sst>
 </file>
@@ -100,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -151,22 +169,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -182,6 +206,6073 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maintainability Index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$C$4:$C$6,Sheet1!$C$10:$C$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-391C-4901-B90B-10BBB8574966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1273583343"/>
+        <c:axId val="1273584303"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1273583343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273584303"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1273584303"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Score</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1273583343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclomatic Complexity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$4:$D$6,Sheet1!$D$10:$D$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>513</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AC07-4933-8DE3-33C8122CB3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1484061535"/>
+        <c:axId val="1484060575"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1484061535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484060575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1484060575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VS Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484061535"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="105"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="5"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Depth of Inheritance</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$E$4:$E$6,Sheet1!$E$10:$E$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-93E9-4FEA-A07F-B6CB8F0616C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="872541935"/>
+        <c:axId val="872540495"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="872541935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872540495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="872540495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VS Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="872541935"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="106"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="6"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Class Coupling</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$F$4:$F$6,Sheet1!$F$10:$F$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E842-4F4B-A0DC-04002DB3FDE3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1148487071"/>
+        <c:axId val="1148488031"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1148487071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148488031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1148488031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>VS Score</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148487071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lines of Source code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$G$4:$G$6,Sheet1!$G$10:$G$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1729</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3730</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5106</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF4C-4438-8B50-E1A6F29C5B23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1484062975"/>
+        <c:axId val="1148171535"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1484062975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.48085995348142457"/>
+              <c:y val="0.89730722032460297"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1148171535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1148171535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1484062975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lines of Executable code</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$H$4:$H$6,Sheet1!$H$10:$H$12)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1121</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE2A-4159-81BA-42F212905855}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1501041295"/>
+        <c:axId val="1501042255"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1501041295"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weeks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501042255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1501042255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501041295"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
+  <a:schemeClr val="accent3"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>214312</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC95E48B-5C08-D811-CE33-5B6D945F7BED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1162049</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1466849</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B4D2B8C-F68C-A233-381A-9E750808F6E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8644E12B-5453-9AC0-0592-D55EAA78EFE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>157161</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE468794-D9B3-431C-03EC-609E61656B09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1466850</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CEDE8E7-40C2-2F7E-5E49-EC950346D443}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D62859D1-860C-0238-A316-9606DAF1C5F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -501,10 +6592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965F875A-F068-45C9-BB49-AB5DF63B4733}">
-  <dimension ref="A2:I6"/>
+  <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,119 +6612,202 @@
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>85</v>
+      </c>
+      <c r="D4" s="4">
+        <v>197</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>60</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1301</v>
+      </c>
+      <c r="H4" s="4">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>88</v>
+      </c>
+      <c r="D5" s="3">
+        <v>287</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <v>68</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1729</v>
+      </c>
+      <c r="H5" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>85</v>
+      </c>
+      <c r="D6" s="3">
+        <v>513</v>
+      </c>
+      <c r="E6" s="3">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3">
+        <v>83</v>
+      </c>
+      <c r="G6" s="3">
+        <v>3044</v>
+      </c>
+      <c r="H6" s="3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="7" t="s">
-        <v>1</v>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="4">
+        <v>86</v>
+      </c>
+      <c r="D10" s="4">
+        <v>633</v>
+      </c>
+      <c r="E10" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>3</v>
+      <c r="F10" s="4">
+        <v>92</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>4</v>
+      <c r="G10" s="4">
+        <v>3730</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
+      <c r="H10" s="4">
+        <v>766</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
+      <c r="B11" t="s">
+        <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
+      <c r="C11" s="3">
+        <v>84</v>
       </c>
-      <c r="D4" s="6">
-        <v>85</v>
+      <c r="D11" s="3">
+        <v>801</v>
       </c>
-      <c r="E4" s="6">
-        <v>197</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="G4" s="6">
-        <v>60</v>
+      <c r="F11" s="3">
+        <v>107</v>
       </c>
-      <c r="H4" s="6">
-        <v>1301</v>
+      <c r="G11" s="3">
+        <v>4602</v>
       </c>
-      <c r="I4" s="6">
-        <v>266</v>
+      <c r="H11" s="3">
+        <v>992</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="3">
+        <v>84</v>
+      </c>
+      <c r="D12" s="3">
+        <v>883</v>
+      </c>
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="F12" s="3">
+        <v>113</v>
       </c>
-      <c r="D5" s="5">
-        <v>88</v>
+      <c r="G12" s="3">
+        <v>5106</v>
       </c>
-      <c r="E5" s="5">
-        <v>287</v>
-      </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="5">
-        <v>68</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1729</v>
-      </c>
-      <c r="I5" s="5">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="5">
-        <v>85</v>
-      </c>
-      <c r="E6" s="5">
-        <v>513</v>
-      </c>
-      <c r="F6" s="5">
-        <v>22</v>
-      </c>
-      <c r="G6" s="5">
-        <v>83</v>
-      </c>
-      <c r="H6" s="5">
-        <v>3044</v>
-      </c>
-      <c r="I6" s="5">
-        <v>629</v>
+      <c r="H12" s="3">
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Sprint2/Code_Metrics.xlsx
+++ b/Sprint2/Code_Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kdbro\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE64B7A-56C2-4165-A1F6-AD499FA76944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AFD74D-1ECF-4900-ACA6-0D34F5C05781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21840" yWindow="0" windowWidth="29760" windowHeight="21000" xr2:uid="{4AA74016-5F1D-4EC9-B5F7-5BB9F8803B5C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AA74016-5F1D-4EC9-B5F7-5BB9F8803B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Maintainability Index</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>2/24 Mon</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,6 +194,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,10 +386,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$4:$C$6,Sheet1!$C$10:$C$12)</c:f>
+              <c:f>(Sheet1!$C$4:$C$6,Sheet1!$C$10:$C$12,Sheet1!$C$16:$C$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -403,6 +407,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,10 +881,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$4:$D$6,Sheet1!$D$10:$D$12)</c:f>
+              <c:f>(Sheet1!$D$4:$D$6,Sheet1!$D$10:$D$12,Sheet1!$D$16:$D$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>197</c:v>
                 </c:pt>
@@ -889,6 +902,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1119</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1253</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1349,10 +1371,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$4:$E$6,Sheet1!$E$10:$E$12)</c:f>
+              <c:f>(Sheet1!$E$4:$E$6,Sheet1!$E$10:$E$12,Sheet1!$E$16:$E$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1370,6 +1392,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,10 +1861,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$4:$F$6,Sheet1!$F$10:$F$12)</c:f>
+              <c:f>(Sheet1!$F$4:$F$6,Sheet1!$F$10:$F$12,Sheet1!$F$16:$F$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -1851,6 +1882,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2311,10 +2351,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$G$4:$G$6,Sheet1!$G$10:$G$12)</c:f>
+              <c:f>(Sheet1!$G$4:$G$6,Sheet1!$G$10:$G$12,Sheet1!$G$16:$G$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1301</c:v>
                 </c:pt>
@@ -2332,6 +2372,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5106</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6547</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2747,10 +2796,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$4:$H$6,Sheet1!$H$10:$H$12)</c:f>
+              <c:f>(Sheet1!$H$4:$H$6,Sheet1!$H$10:$H$12,Sheet1!$H$16:$H$18)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>266</c:v>
                 </c:pt>
@@ -2768,6 +2817,15 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1441</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1571</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6060,14 +6118,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>39052</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>871537</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6096,13 +6154,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1162049</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1466849</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6132,14 +6190,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>62865</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6168,14 +6226,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>172401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>24764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6203,15 +6261,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:colOff>1224915</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>6667</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>1482090</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>154305</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6240,14 +6298,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>11430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>140017</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6592,32 +6650,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965F875A-F068-45C9-BB49-AB5DF63B4733}">
-  <dimension ref="A2:H12"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="22.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="10" max="10" width="22.5546875" customWidth="1"/>
+    <col min="11" max="11" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -6637,7 +6693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +6719,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6689,7 +6745,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6715,12 +6771,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -6728,7 +6784,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6754,7 +6810,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6780,7 +6836,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6804,6 +6860,97 @@
       </c>
       <c r="H12" s="3">
         <v>1121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45740</v>
+      </c>
+      <c r="C16">
+        <v>85</v>
+      </c>
+      <c r="D16">
+        <v>996</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>126</v>
+      </c>
+      <c r="G16">
+        <v>5632</v>
+      </c>
+      <c r="H16">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45747</v>
+      </c>
+      <c r="C17">
+        <v>85</v>
+      </c>
+      <c r="D17">
+        <v>1119</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>147</v>
+      </c>
+      <c r="G17">
+        <v>6547</v>
+      </c>
+      <c r="H17">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45754</v>
+      </c>
+      <c r="C18">
+        <v>85</v>
+      </c>
+      <c r="D18">
+        <v>1253</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>159</v>
+      </c>
+      <c r="G18">
+        <v>7134</v>
+      </c>
+      <c r="H18">
+        <v>1571</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint2/Code_Metrics.xlsx
+++ b/Sprint2/Code_Metrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorda\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kdbro\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82AFD74D-1ECF-4900-ACA6-0D34F5C05781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F1DE82-22E8-41AC-8039-FBBDD91400E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AA74016-5F1D-4EC9-B5F7-5BB9F8803B5C}"/>
+    <workbookView xWindow="27120" yWindow="0" windowWidth="24480" windowHeight="21000" xr2:uid="{4AA74016-5F1D-4EC9-B5F7-5BB9F8803B5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Maintainability Index</t>
   </si>
@@ -185,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -195,6 +195,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,10 +387,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$C$4:$C$6,Sheet1!$C$10:$C$12,Sheet1!$C$16:$C$18)</c:f>
+              <c:f>(Sheet1!$C$4:$C$6,Sheet1!$C$10:$C$12,Sheet1!$C$16:$C$18,Sheet1!$C$22:$C$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -416,6 +417,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -881,10 +891,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$D$4:$D$6,Sheet1!$D$10:$D$12,Sheet1!$D$16:$D$18)</c:f>
+              <c:f>(Sheet1!$D$4:$D$6,Sheet1!$D$10:$D$12,Sheet1!$D$16:$D$18,Sheet1!$D$22:$D$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>197</c:v>
                 </c:pt>
@@ -911,6 +921,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1253</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1313</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1363</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,10 +1390,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$4:$E$6,Sheet1!$E$10:$E$12,Sheet1!$E$16:$E$18)</c:f>
+              <c:f>(Sheet1!$E$4:$E$6,Sheet1!$E$10:$E$12,Sheet1!$E$16:$E$18,Sheet1!$E$22:$E$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1400,6 +1419,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -1861,10 +1889,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$F$4:$F$6,Sheet1!$F$10:$F$12,Sheet1!$F$16:$F$18)</c:f>
+              <c:f>(Sheet1!$F$4:$F$6,Sheet1!$F$10:$F$12,Sheet1!$F$16:$F$18,Sheet1!$F$22:$F$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>60</c:v>
                 </c:pt>
@@ -1891,6 +1919,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2351,10 +2388,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$G$4:$G$6,Sheet1!$G$10:$G$12,Sheet1!$G$16:$G$18)</c:f>
+              <c:f>(Sheet1!$G$4:$G$6,Sheet1!$G$10:$G$12,Sheet1!$G$16:$G$18,Sheet1!$G$22:$G$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1301</c:v>
                 </c:pt>
@@ -2381,6 +2418,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>7134</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7382</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7683</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2796,10 +2842,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$H$4:$H$6,Sheet1!$H$10:$H$12,Sheet1!$H$16:$H$18)</c:f>
+              <c:f>(Sheet1!$H$4:$H$6,Sheet1!$H$10:$H$12,Sheet1!$H$16:$H$18,Sheet1!$H$22:$H$24)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>266</c:v>
                 </c:pt>
@@ -2826,6 +2872,15 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1764</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6116,16 +6171,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>39052</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>181927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>871537</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186690</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6152,16 +6207,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1162049</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1466849</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>498474</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6188,16 +6243,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67627</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>20002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>62865</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6224,16 +6279,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>172401</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>77151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>24764</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>120014</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6260,16 +6315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1224915</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>6667</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>50165</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1482090</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>513715</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6296,16 +6351,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>11430</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>233362</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>140017</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>26987</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>44767</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6650,30 +6705,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{965F875A-F068-45C9-BB49-AB5DF63B4733}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="22.5546875" customWidth="1"/>
-    <col min="11" max="11" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -6719,7 +6776,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -6745,7 +6802,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -6771,12 +6828,12 @@
         <v>629</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -6784,7 +6841,7 @@
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -6810,7 +6867,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -6836,7 +6893,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -6862,95 +6919,186 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="8">
         <v>45740</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>85</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>996</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>126</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>5632</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <v>1227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="8">
         <v>45747</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>85</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>1119</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>147</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>6547</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <v>1441</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18" s="8">
         <v>45754</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>85</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>1253</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>159</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>7134</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <v>1571</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45757</v>
+      </c>
+      <c r="C22" s="3">
+        <v>84</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1313</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
+        <v>157</v>
+      </c>
+      <c r="G22" s="3">
+        <v>7382</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45763</v>
+      </c>
+      <c r="C23" s="3">
+        <v>84</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1363</v>
+      </c>
+      <c r="E23" s="3">
+        <v>3</v>
+      </c>
+      <c r="F23" s="3">
+        <v>173</v>
+      </c>
+      <c r="G23" s="3">
+        <v>7683</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45768</v>
+      </c>
+      <c r="C24" s="3">
+        <v>84</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1437</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3">
+        <v>179</v>
+      </c>
+      <c r="G24" s="3">
+        <v>8263</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1764</v>
       </c>
     </row>
   </sheetData>
